--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>decksフォルダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>adminフォルダ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,6 +377,10 @@
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deckフォルダ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1077,7 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1107,20 +1109,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1147,10 +1149,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1161,7 +1163,7 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -1179,10 +1181,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1197,7 +1199,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
@@ -1213,10 +1215,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1226,17 +1228,17 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1247,7 +1249,7 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1263,25 +1265,25 @@
         <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="29"/>
       <c r="B12" s="18" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -1294,15 +1296,15 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -1317,10 +1319,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1335,17 +1337,17 @@
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="29"/>
       <c r="B16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
@@ -1360,15 +1362,15 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1378,15 +1380,15 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1396,15 +1398,15 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1414,15 +1416,15 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1461,7 +1463,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1469,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -8,15 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="ディレクトリマップ" sheetId="1" r:id="rId1"/>
-    <sheet name="APIリスト" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="APIリスト" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -53,9 +55,6 @@
     <t>complete.php</t>
   </si>
   <si>
-    <t>construction.php</t>
-  </si>
-  <si>
     <t>loginフォルダ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,20 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディレクトリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後日フォルダ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーのマイデッキ保管庫</t>
     <rPh sb="10" eb="13">
       <t>ホカンコ</t>
@@ -116,17 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>APIリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>API名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能（API）</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -134,32 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お知らせ表示、人気デッキトップ５表示</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッキ追加、削除、コピー</t>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,66 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デッキ表示、カード詳細表示、コメント出力</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッキ一覧表示</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッキ作成/保存</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッキ一覧</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集、削除</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>役割</t>
     <rPh sb="0" eb="2">
       <t>ヤクワリ</t>
@@ -238,25 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページ、お知らせ表示、人気デッキ表示、新規登録ボタン</t>
-    <rPh sb="8" eb="9">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まだファイルなし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,6 +250,268 @@
   </si>
   <si>
     <t>deckフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリマインド機能</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remainder_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remainder_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気デッキトップ５表示機能</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>popular_decks_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_api.php, popular_decks_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ、お知らせ表示、人気デッキ表示</t>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deck_control_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all_deck_view_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのユーザーが作成したデッキを表示する機能</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>construction.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>construction_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ作成・保存機能</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current_deck_control_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでにあるデッキの編集機能</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_users_control_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ユーザー一覧表示機能、ユーザー情報編集/削除機能</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_decks_control_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全デッキ一覧表示機能、全デッキ編集/削除機能</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ/ファイル名</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ表示機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ追加/削除</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート2 APIリスト参照</t>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_deck_view_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが作成したデッキを表示する機能</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,7 +551,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +570,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -659,14 +802,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -675,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,12 +896,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +923,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,6 +948,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,11 +1271,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1105,37 +1299,37 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>25</v>
+      <c r="B2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
@@ -1148,26 +1342,24 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="16" t="s">
-        <v>37</v>
+      <c r="F4" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
@@ -1180,11 +1372,11 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="16" t="s">
-        <v>29</v>
+      <c r="F6" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1198,66 +1390,64 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="16" t="s">
-        <v>40</v>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="16" t="s">
-        <v>28</v>
+      <c r="F8" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="16" t="s">
-        <v>41</v>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
@@ -1265,29 +1455,25 @@
         <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
@@ -1296,15 +1482,15 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="16" t="s">
-        <v>42</v>
+      <c r="F13" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -1318,11 +1504,11 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="16" t="s">
-        <v>44</v>
+      <c r="F14" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1332,28 +1518,28 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="7" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="16" t="s">
-        <v>45</v>
+      <c r="F15" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="29"/>
-      <c r="B16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
@@ -1362,15 +1548,15 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="16" t="s">
-        <v>47</v>
+      <c r="F17" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1380,15 +1566,15 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="16" t="s">
-        <v>46</v>
+      <c r="F18" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1398,15 +1584,15 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="16" t="s">
-        <v>49</v>
+      <c r="F19" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1416,29 +1602,54 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="17" t="s">
-        <v>48</v>
+      <c r="F20" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1449,39 +1660,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14">
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="32"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1496,4 +1894,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16296" windowHeight="5808"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16296" windowHeight="5808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ディレクトリマップ" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -97,10 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>APIリスト（シート２）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能（API）</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -108,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -126,10 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まだファイルなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>remainder.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,13 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項番</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ディレクトリ/ファイル名</t>
     <rPh sb="11" eb="12">
       <t>メイ</t>
@@ -498,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_deck_view_api.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーが作成したデッキを表示する機能</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
@@ -512,6 +488,49 @@
     <rPh sb="17" eb="19">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>authフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>viewフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adminフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_deck_control_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deck_controlフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン/ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_api.php、logout_api.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -583,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -847,13 +866,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +1093,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,68 +1431,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="76.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.21875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="25"/>
       <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1340,29 +1492,25 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="25"/>
       <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1370,17 +1518,15 @@
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1388,15 +1534,13 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -1404,49 +1548,41 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="21">
         <v>5</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="26"/>
       <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="23">
         <v>6</v>
       </c>
@@ -1454,29 +1590,27 @@
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="26"/>
       <c r="B12" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="11">
         <v>7</v>
       </c>
@@ -1484,17 +1618,15 @@
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="11">
         <v>8</v>
       </c>
@@ -1502,47 +1634,41 @@
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="11">
         <v>9</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="26"/>
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>10</v>
       </c>
@@ -1550,17 +1676,15 @@
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>11</v>
       </c>
@@ -1568,17 +1692,15 @@
       <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="11">
         <v>12</v>
       </c>
@@ -1586,17 +1708,15 @@
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="11">
         <v>13</v>
       </c>
@@ -1604,52 +1724,41 @@
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="26"/>
       <c r="B21" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1660,221 +1769,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="33.5546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="33"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="32"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="48"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16296" windowHeight="5808" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16296" windowHeight="5808"/>
   </bookViews>
   <sheets>
     <sheet name="ディレクトリマップ" sheetId="1" r:id="rId1"/>
     <sheet name="APIリスト" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="ドロップダウンリスト" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ディレクトリマップ!$B$3:$B$22</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -531,6 +535,62 @@
   </si>
   <si>
     <t>login_api.php、logout_api.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能テスト</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,7 +598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +628,15 @@
       <name val="游ゴシック Medium"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -602,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -965,13 +1034,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +1257,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,337 +1583,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="13"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="25"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="25"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="26"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="23">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="26"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="26"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>10</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="11">
         <v>11</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="26"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
+      <formula1>$L$3:$L$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1771,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2090,4 +2383,19 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -100,13 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能（API）</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -114,13 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>役割</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>remainder.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,13 +432,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>役割</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>API名</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -583,6 +562,71 @@
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇/×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -960,38 +1004,18 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color theme="0"/>
       </top>
       <bottom style="thin">
@@ -1011,21 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -1036,9 +1045,11 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -1046,42 +1057,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0"/>
       </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -1093,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,34 +1238,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1268,25 +1271,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1583,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1598,10 +1601,12 @@
     <col min="7" max="7" width="29.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="27.33203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:22">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1614,44 +1619,59 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>85</v>
+      <c r="B2" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="30" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>78</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="U2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="25"/>
-      <c r="B3" s="58"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
@@ -1662,38 +1682,52 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="3"/>
+      <c r="U3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="U4" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="25"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1704,96 +1738,122 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="3"/>
+      <c r="U5" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="U6" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="22"/>
       <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="26"/>
-      <c r="B10" s="58"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
@@ -1804,22 +1864,27 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="23">
         <v>6</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>17</v>
@@ -1827,13 +1892,16 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="26"/>
-      <c r="B12" s="58"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="20"/>
@@ -1842,74 +1910,92 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="26"/>
-      <c r="B16" s="58"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
@@ -1920,97 +2006,120 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>10</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>11</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>12</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="26"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
@@ -2019,14 +2128,17 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="11"/>
-      <c r="B22" s="59"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2034,9 +2146,12 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="5"/>
@@ -2047,12 +2162,18 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
-      <formula1>$L$3:$L$5</formula1>
+      <formula1>$U$3:$U$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:I50 K3:K50 M3:M50">
+      <formula1>$V$3:$V$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2062,298 +2183,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:14">
+      <c r="A1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38" t="s">
-        <v>62</v>
-      </c>
+      <c r="B2" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="56"/>
+      <c r="C3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36"/>
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="33"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="37"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="44" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="N4" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="6"/>
+      <c r="N5" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="N6" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="33"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="57"/>
       <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>6</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>7</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="33"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57"/>
       <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="33"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="58"/>
       <c r="F18" s="36"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="36"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="11">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="D19" s="59"/>
+      <c r="E19" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="B20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="32"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="48"/>
-      <c r="E22" s="3"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="D22" s="46"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="D23" s="5"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
+      <formula1>$N$3:$N$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ディレクトリマップ.xlsx
+++ b/ディレクトリマップ.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1992" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="ディレクトリマップ" sheetId="1" r:id="rId1"/>
@@ -294,13 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,158 +324,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,234 +339,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1101,251 +764,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1546,57 +967,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1885,36 +1259,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.55833333333333" style="37" customWidth="1"/>
-    <col min="2" max="2" width="9.21666666666667" style="37" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="76.775" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1083333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.8833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88333333333333" style="1"/>
-    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88333333333333" style="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49" t="s">
@@ -2068,7 +1440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -2099,7 +1471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -2125,7 +1497,7 @@
       <c r="O7" s="23"/>
       <c r="P7" s="29"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:21">
       <c r="A8" s="56">
         <v>4</v>
       </c>
@@ -2153,7 +1525,7 @@
       <c r="O8" s="23"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:21">
       <c r="A9" s="58">
         <v>5</v>
       </c>
@@ -2181,7 +1553,7 @@
       <c r="O9" s="23"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -2201,7 +1573,7 @@
       <c r="O10" s="63"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:21">
       <c r="A11" s="59">
         <v>6</v>
       </c>
@@ -2231,7 +1603,7 @@
       <c r="O11" s="23"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:21">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
@@ -2251,7 +1623,7 @@
       <c r="O12" s="63"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:21">
       <c r="A13" s="19">
         <v>7</v>
       </c>
@@ -2279,7 +1651,7 @@
       <c r="O13" s="23"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:21">
       <c r="A14" s="19">
         <v>8</v>
       </c>
@@ -2307,7 +1679,7 @@
       <c r="O14" s="23"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:21">
       <c r="A15" s="19">
         <v>9</v>
       </c>
@@ -2335,7 +1707,7 @@
       <c r="O15" s="23"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:21">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
@@ -2507,7 +1879,7 @@
       <c r="O22" s="23"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="C23" s="32"/>
@@ -2525,6 +1897,7 @@
       <c r="O23" s="32"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
       <formula1>$T$3:$T$6</formula1>
@@ -2535,32 +1908,28 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.55833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.55833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.55833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5583333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88333333333333" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -2661,7 +2030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:14">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -2678,7 +2047,7 @@
       </c>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:14">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -2695,7 +2064,7 @@
       </c>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:14">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="25"/>
@@ -2706,7 +2075,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:14">
       <c r="A10" s="19">
         <v>5</v>
       </c>
@@ -2723,7 +2092,7 @@
       </c>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14">
       <c r="A11" s="19">
         <v>6</v>
       </c>
@@ -2740,7 +2109,7 @@
       </c>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:14">
       <c r="A12" s="19">
         <v>7</v>
       </c>
@@ -2757,7 +2126,7 @@
       </c>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:14">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="25"/>
@@ -2768,7 +2137,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:14">
       <c r="A14" s="19">
         <v>8</v>
       </c>
@@ -2785,7 +2154,7 @@
       </c>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:14">
       <c r="A15" s="19">
         <v>9</v>
       </c>
@@ -2802,7 +2171,7 @@
       </c>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:14">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -2819,7 +2188,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="19">
         <v>11</v>
       </c>
@@ -2848,7 +2217,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="19">
         <v>12</v>
       </c>
@@ -2865,7 +2234,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="19">
         <v>13</v>
       </c>
@@ -2882,7 +2251,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -2891,15 +2260,16 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="1:8">
       <c r="D22" s="34"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="1:8">
       <c r="E23" s="32"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
       <formula1>$N$3:$N$6</formula1>
@@ -2907,54 +2277,46 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A4"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>